--- a/documents/地图定义及怪物分布.xlsx
+++ b/documents/地图定义及怪物分布.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="155">
   <si>
     <t>10407-10414</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,6 +577,10 @@
   <si>
     <t>地图号_主
 2位</t>
+  </si>
+  <si>
+    <t>20012-20013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -745,12 +749,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -769,12 +767,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -796,12 +788,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -811,24 +797,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -864,6 +838,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,8 +1173,8 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1185,16 +1189,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="42" t="s">
         <v>153</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="40" t="s">
         <v>150</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1203,101 +1207,101 @@
       <c r="F1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="39" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48">
+    <row r="2" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38">
         <v>0</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="36">
         <v>0</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31">
+    <row r="3" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="50">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="25">
         <v>0</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="20">
+    <row r="4" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="51"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="18">
         <v>1</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="20">
+    <row r="5" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="51"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="18">
         <v>2</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="12">
         <v>3</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="29" t="s">
         <v>131</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -1310,93 +1314,93 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="31">
+    <row r="7" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="50">
         <v>2</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="25">
         <v>0</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20">
+    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="51"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="18">
         <v>1</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="20">
+    <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="51"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="20">
+    <row r="10" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="51"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="18">
         <v>3</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="12">
         <v>4</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="29" t="s">
         <v>113</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -1410,10 +1414,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="35">
+      <c r="A12" s="46">
         <v>3</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="46" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="5">
@@ -1433,8 +1437,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="5">
         <v>1</v>
       </c>
@@ -1452,8 +1456,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="5">
         <v>2</v>
       </c>
@@ -1471,8 +1475,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="5">
         <v>3</v>
       </c>
@@ -1490,8 +1494,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="5">
         <v>4</v>
       </c>
@@ -1509,8 +1513,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="5">
         <v>5</v>
       </c>
@@ -1527,55 +1531,55 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="31">
+    <row r="18" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="50">
         <v>4</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="25">
         <v>0</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="20">
+    <row r="19" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="51"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="18">
         <v>1</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="12">
         <v>2</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="29" t="s">
         <v>83</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -1588,131 +1592,131 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="31">
+    <row r="21" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="50">
         <v>5</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="25">
         <v>0</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="20">
+    <row r="22" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="51"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="18">
         <v>1</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="20">
+    <row r="23" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="51"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="18">
         <v>2</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="20">
+    <row r="24" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="51"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="18">
         <v>3</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="20">
+    <row r="25" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="51"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="18">
         <v>4</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="20">
+    <row r="26" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="51"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="18">
         <v>5</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="12">
         <v>6</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="29" t="s">
         <v>60</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -1726,10 +1730,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="35">
+      <c r="A28" s="46">
         <v>6</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="46" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="5">
@@ -1744,13 +1748,13 @@
       <c r="F28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>53</v>
+      <c r="G28" s="1">
+        <v>20025</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="5">
         <v>1</v>
       </c>
@@ -1768,8 +1772,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="5">
         <v>2</v>
       </c>
@@ -1787,8 +1791,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="5">
         <v>3</v>
       </c>
@@ -1806,8 +1810,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="5">
         <v>4</v>
       </c>
@@ -1825,8 +1829,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="5">
         <v>5</v>
       </c>
@@ -1843,218 +1847,217 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="34">
+    <row r="34" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="28">
         <v>7</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="25">
         <v>0</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="31">
+    <row r="35" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="50">
         <v>8</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="25">
         <v>0</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="25" t="str">
+      <c r="G35" s="21" t="str">
         <f>CONCATENATE(G19,",20033")</f>
         <v>20020,20033</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="22"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="20">
+    <row r="36" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="51"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="18">
         <v>1</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="16" t="str">
-        <f>CONCATENATE(G10,"")</f>
-        <v>20012-20014</v>
-      </c>
-      <c r="H36" s="23"/>
-    </row>
-    <row r="37" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="22"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="20">
+      <c r="G36" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="51"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="18">
         <v>2</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="16" t="str">
+      <c r="G37" s="14" t="str">
         <f>CONCATENATE(G6,",20035")</f>
         <v>20005-20006,20035</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="22"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="20">
+    <row r="38" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="51"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="18">
         <v>3</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="16" t="str">
+      <c r="G38" s="14" t="str">
         <f>CONCATENATE(G9,",20040")</f>
         <v>20010-20011,20040</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="22"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="20">
+    <row r="39" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="51"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="18">
         <v>4</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="16" t="str">
+      <c r="G39" s="14" t="str">
         <f>CONCATENATE(G18,",20036")</f>
         <v>20019,20036</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="22"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="20">
+    <row r="40" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="51"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="18">
         <v>5</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="16" t="str">
+      <c r="G40" s="14" t="str">
         <f>CONCATENATE(G34,"")</f>
         <v>20032-20037</v>
       </c>
-      <c r="H40" s="23"/>
-    </row>
-    <row r="41" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="22"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="20">
+      <c r="H40" s="19"/>
+    </row>
+    <row r="41" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="51"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="18">
         <v>6</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="16" t="str">
+      <c r="G41" s="14" t="str">
         <f>CONCATENATE(G11,",20045")</f>
         <v>20015,20045</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="22"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="20">
+    <row r="42" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="51"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="18">
         <v>7</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G42" s="16" t="str">
+      <c r="G42" s="14" t="str">
         <f>CONCATENATE(G27,",20037")</f>
         <v>20024,20037</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="22"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="20">
+    <row r="43" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="51"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="18">
         <v>8</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="16" t="str">
+      <c r="G43" s="14" t="str">
         <f>CONCATENATE(G17,",20032,20034,20039")</f>
         <v>20018,20032,20034,20039</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
-      <c r="B44" s="13"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="12">
         <v>9</v>
       </c>
@@ -2074,11 +2077,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A35:A44"/>
     <mergeCell ref="B35:B44"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="B3:B6"/>
@@ -2088,6 +2086,11 @@
     <mergeCell ref="B21:B27"/>
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A35:A44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>

--- a/documents/地图定义及怪物分布.xlsx
+++ b/documents/地图定义及怪物分布.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="405" windowWidth="19155" windowHeight="8895"/>
+    <workbookView xWindow="-1755" yWindow="540" windowWidth="19155" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="分布" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="156">
   <si>
     <t>10407-10414</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10601-10603</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -476,10 +472,6 @@
   </si>
   <si>
     <t>毒蛇山谷</t>
-  </si>
-  <si>
-    <t>20007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10204-10209</t>
@@ -580,6 +572,18 @@
   </si>
   <si>
     <t>20012-20013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20007-20009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20025-20026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20021,20041-20044</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,8 +1177,8 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1190,25 +1194,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A1" s="42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
@@ -1216,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="36">
         <v>0</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G2" s="32">
         <v>0</v>
@@ -1239,22 +1243,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" s="25">
         <v>0</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -1264,16 +1268,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -1283,16 +1287,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1302,16 +1306,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
@@ -1319,22 +1323,22 @@
         <v>2</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="25">
         <v>0</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -1344,16 +1348,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" s="14">
-        <v>0</v>
+        <v>20009</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -1363,16 +1367,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -1382,16 +1386,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1401,16 +1405,16 @@
         <v>4</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1418,22 +1422,22 @@
         <v>3</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1443,16 +1447,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>53</v>
+        <v>102</v>
+      </c>
+      <c r="G13" s="1">
+        <v>20025</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1462,16 +1466,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>99</v>
+      </c>
+      <c r="G14" s="1">
+        <v>20026</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1481,16 +1485,16 @@
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1500,16 +1504,16 @@
         <v>4</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -1519,16 +1523,16 @@
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
@@ -1536,22 +1540,22 @@
         <v>4</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="25">
         <v>0</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -1561,16 +1565,16 @@
         <v>1</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1580,16 +1584,16 @@
         <v>2</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
@@ -1597,22 +1601,22 @@
         <v>5</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="25">
         <v>0</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -1622,16 +1626,16 @@
         <v>1</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -1641,16 +1645,16 @@
         <v>2</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -1660,16 +1664,16 @@
         <v>3</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -1679,16 +1683,16 @@
         <v>4</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -1698,16 +1702,16 @@
         <v>5</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1717,16 +1721,16 @@
         <v>6</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -1734,22 +1738,22 @@
         <v>6</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="5">
         <v>0</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="1">
-        <v>20025</v>
+        <v>53</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -1910,7 +1914,7 @@
         <v>24</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H36" s="19"/>
     </row>
@@ -1989,9 +1993,8 @@
       <c r="F40" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="14" t="str">
-        <f>CONCATENATE(G34,"")</f>
-        <v>20032-20037</v>
+      <c r="G40" s="14">
+        <v>20038</v>
       </c>
       <c r="H40" s="19"/>
     </row>
@@ -2070,9 +2073,8 @@
       <c r="F44" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G44" s="8" t="str">
-        <f>CONCATENATE(G20,",20041")</f>
-        <v>20021,20041</v>
+      <c r="G44" s="8" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
